--- a/Castagna_Gino_2_plan_test_062022.xlsx
+++ b/Castagna_Gino_2_plan_test_062022.xlsx
@@ -113,10 +113,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot; €&quot;;[RED]\-#,##0&quot; €&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -138,6 +140,36 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFCF03"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000033"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -160,14 +192,8 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Montserrat"/>
-      <family val="0"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,12 +202,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF000033"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -190,119 +228,109 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
+      <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="hair">
+        <color rgb="FFFFCF03"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FFFFCF03"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FFFFCF03"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin"/>
+      <right style="hair">
+        <color rgb="FFFFCF03"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+      <bottom style="hair">
+        <color rgb="FFFFCF03"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FFFFCF03"/>
+      </left>
+      <right/>
       <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair">
+        <color rgb="FFFFCF03"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <right/>
+      <top style="hair">
+        <color rgb="FFFFCF03"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FFFFCF03"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color rgb="FFFFCF03"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <right style="hair">
+        <color rgb="FFFFCF03"/>
+      </right>
+      <top style="hair">
+        <color rgb="FFFFCF03"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FFFFCF03"/>
+      </left>
+      <right style="hair">
+        <color rgb="FFFFCF03"/>
+      </right>
+      <top style="hair">
+        <color rgb="FFFFCF03"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FFFFCF03"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -326,108 +354,85 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="9" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="19">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Background" xfId="20"/>
+    <cellStyle name="Card" xfId="21"/>
+    <cellStyle name="Card B" xfId="22"/>
+    <cellStyle name="Card BL" xfId="23"/>
+    <cellStyle name="Card BR" xfId="24"/>
+    <cellStyle name="Card L" xfId="25"/>
+    <cellStyle name="Card R" xfId="26"/>
+    <cellStyle name="Card T" xfId="27"/>
+    <cellStyle name="Card TL" xfId="28"/>
+    <cellStyle name="Card TR" xfId="29"/>
+    <cellStyle name="Column Header" xfId="30"/>
+    <cellStyle name="Input" xfId="31"/>
+    <cellStyle name="Résultat2" xfId="32"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -441,11 +446,11 @@
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF000033"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -466,7 +471,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFFF66"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -474,7 +479,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFCF03"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -497,261 +502,170 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="58.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="57.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="58.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="57.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="52.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
